--- a/tp5-busquedas-locales/code/genetic_algorithm_results.xlsx
+++ b/tp5-busquedas-locales/code/genetic_algorithm_results.xlsx
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[3, 0, 0, 2]</t>
+          <t>[0, 3, 1, 1]</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -481,28 +481,28 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[2, 0, 3, 1]</t>
+          <t>[1, 3, 0, 2]</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>288</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.0359039306640625</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[3, 3, 3, 0]</t>
+          <t>[2, 1, 2, 0]</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -520,7 +520,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0009980201721191406</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -531,7 +531,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[2, 0, 0, 3]</t>
+          <t>[1, 3, 1, 0]</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -546,21 +546,21 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002991199493408203</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[0, 3, 1, 1]</t>
+          <t>[2, 3, 3, 1]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -568,28 +568,28 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[2, 0, 3, 1]</t>
+          <t>[1, 3, 0, 2]</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>574</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>0.07280516624450684</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[1, 0]</t>
+          <t>[2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[3, 3, 3, 0]</t>
+          <t>[0, 2, 0, 0]</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -604,21 +604,21 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00897669792175293</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[3, 2, 1, 0]</t>
+          <t>[0, 1, 1, 3]</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -626,28 +626,28 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[2, 0, 3, 1]</t>
+          <t>[1, 3, 0, 2]</t>
         </is>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>469</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05884194374084473</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[3, 1, 1, 1]</t>
+          <t>[0, 3, 1, 3]</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -662,21 +662,21 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003989219665527344</v>
+        <v>0.0009977817535400391</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[2, 2, 0, 3]</t>
+          <t>[0, 3, 1, 1]</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -691,21 +691,21 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>954</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>0.1176848411560059</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[3, 0, 3, 3]</t>
+          <t>[2, 1, 2, 2]</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -713,28 +713,28 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[1, 3, 0, 2]</t>
+          <t>[2, 0, 3, 1]</t>
         </is>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.002992153167724609</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[3, 2, 0, 2]</t>
+          <t>[2, 1, 3, 1]</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -742,28 +742,28 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[1, 3, 0, 2]</t>
+          <t>[2, 0, 3, 1]</t>
         </is>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>366</v>
+        <v>43</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0468747615814209</v>
+        <v>0.004986763000488281</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[3, 3, 3, 0]</t>
+          <t>[1, 1, 0, 3]</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -778,21 +778,21 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.0009975433349609375</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[1, 0]</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[1, 2, 1, 3]</t>
+          <t>[0, 1, 0, 0]</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -800,28 +800,28 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[1, 3, 0, 2]</t>
+          <t>[2, 0, 3, 1]</t>
         </is>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0009975433349609375</v>
+        <v>0.001995086669921875</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[2, 0, 0, 1]</t>
+          <t>[1, 3, 0, 3]</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -836,21 +836,21 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>7</v>
+        <v>219</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0009973049163818359</v>
+        <v>0.02792477607727051</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[0, 3, 2, 3]</t>
+          <t>[2, 3, 0, 2]</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -858,28 +858,28 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[1, 3, 0, 2]</t>
+          <t>[2, 0, 3, 1]</t>
         </is>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>87</v>
+        <v>420</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0109708309173584</v>
+        <v>0.05285859107971191</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
+          <t>[2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[2, 0, 1, 0]</t>
+          <t>[2, 3, 2, 2]</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -887,28 +887,28 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[1, 3, 0, 2]</t>
+          <t>[2, 0, 3, 1]</t>
         </is>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.0009975433349609375</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[2, 1, 1, 0]</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[1, 3, 3, 1]</t>
+          <t>[1, 0, 2, 0]</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -937,7 +937,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[0, 1, 0, 1]</t>
+          <t>[0, 2, 3, 2]</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -952,21 +952,21 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>515</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0009973049163818359</v>
+        <v>0.06482648849487305</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[2, 3, 0, 3]</t>
+          <t>[2, 2, 1, 3]</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -974,28 +974,28 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[1, 3, 0, 2]</t>
+          <t>[2, 0, 3, 1]</t>
         </is>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>403</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0498664379119873</v>
+        <v>0.0009973049163818359</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[3, 2, 3, 3]</t>
+          <t>[1, 1, 2, 0]</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1003,28 +1003,28 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[2, 0, 3, 1]</t>
+          <t>[1, 3, 0, 2]</t>
         </is>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>144</v>
+        <v>3</v>
       </c>
       <c r="F20" t="n">
-        <v>0.01795172691345215</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
+          <t>[1, 1, 0]</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>[0, 3, 3, 0]</t>
+          <t>[0, 3, 1, 1]</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1032,28 +1032,28 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[2, 0, 3, 1]</t>
+          <t>[3, 1, 0, 2]</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>6</v>
+        <v>1000</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0009977817535400391</v>
+        <v>0.1256639957427979</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 0]</t>
+          <t>[2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>[2, 1, 2, 0]</t>
+          <t>[3, 3, 2, 0]</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1068,21 +1068,21 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0009980201721191406</v>
+        <v>0.00598454475402832</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 0]</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>[2, 2, 2, 0]</t>
+          <t>[1, 3, 0, 1]</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1097,21 +1097,21 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>280</v>
+        <v>141</v>
       </c>
       <c r="F23" t="n">
-        <v>0.04188728332519531</v>
+        <v>0.03325104713439941</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>[2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>[0, 3, 3, 0]</t>
+          <t>[1, 3, 0, 0]</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>[2, 0, 3, 1]</t>
+          <t>[1, 3, 0, 2]</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -1140,7 +1140,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>[3, 0, 2, 1]</t>
+          <t>[3, 1, 2, 2]</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1155,21 +1155,21 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>0.001995563507080078</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>[3, 0, 3, 3]</t>
+          <t>[1, 2, 0, 0]</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1177,28 +1177,28 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>[2, 0, 3, 1]</t>
+          <t>[1, 3, 0, 2]</t>
         </is>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001994609832763672</v>
+        <v>0.003988265991210938</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>[0, 2, 1, 1]</t>
+          <t>[1, 1, 3, 3]</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1206,28 +1206,28 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>[1, 3, 0, 2]</t>
+          <t>[2, 0, 3, 1]</t>
         </is>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0009973049163818359</v>
+        <v>0.005984783172607422</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>[1, 0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>[1, 2, 3, 2]</t>
+          <t>[3, 0, 1, 2]</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1242,21 +1242,21 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>908</v>
+        <v>265</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1136963367462158</v>
+        <v>0.03490638732910156</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>[1, 2, 2, 0]</t>
+          <t>[0, 2, 0, 0]</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1271,21 +1271,21 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>297</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.03789877891540527</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>[2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>[1, 3, 2, 3]</t>
+          <t>[2, 1, 1, 1]</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1293,28 +1293,28 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>[1, 3, 0, 2]</t>
+          <t>[2, 0, 3, 1]</t>
         </is>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="F30" t="n">
-        <v>0.006981372833251953</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
+          <t>[1, 0]</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>[2, 3, 3, 1]</t>
+          <t>[2, 2, 1, 1]</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1329,21 +1329,21 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>0.0009968280792236328</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>[7, 2, 1, 1, 1, 5, 1, 7]</t>
+          <t>[2, 5, 1, 2, 5, 1, 7, 0]</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>[2, 6, 3, 0, 7, 1, 4, 1]</t>
+          <t>[7, 1, 4, 6, 2, 0, 5, 3]</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1365,14 +1365,14 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>[3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>[3, 7, 3, 0, 4, 6, 5, 1]</t>
+          <t>[4, 7, 4, 2, 1, 1, 5, 7]</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>[5, 0, 2, 4, 6, 7, 3, 1]</t>
+          <t>[7, 4, 1, 5, 2, 6, 3, 7]</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1390,18 +1390,18 @@
         <v>1000</v>
       </c>
       <c r="F33" t="n">
-        <v>1.40723705291748</v>
+        <v>1.408234119415283</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>[2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[3, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>[7, 1, 4, 5, 7, 4, 2, 4]</t>
+          <t>[1, 4, 2, 6, 6, 2, 6, 1]</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>[7, 3, 1, 5, 2, 0, 6, 4]</t>
+          <t>[4, 0, 3, 6, 2, 7, 1, 1]</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -1419,7 +1419,7 @@
         <v>1000</v>
       </c>
       <c r="F34" t="n">
-        <v>1.414218664169312</v>
+        <v>1.40225076675415</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>[5, 7, 5, 4, 6, 1, 1, 1]</t>
+          <t>[1, 2, 4, 5, 1, 3, 0, 1]</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1438,28 +1438,28 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>[6, 2, 3, 7, 0, 4, 1, 5]</t>
+          <t>[2, 7, 3, 1, 6, 4, 0, 4]</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35" t="n">
         <v>1000</v>
       </c>
       <c r="F35" t="n">
-        <v>1.4192054271698</v>
+        <v>1.409231901168823</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>[2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>[1, 3, 6, 5, 7, 6, 5, 2]</t>
+          <t>[5, 7, 6, 1, 0, 5, 7, 3]</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1467,28 +1467,28 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>[1, 6, 1, 7, 4, 3, 0, 2]</t>
+          <t>[5, 5, 2, 0, 6, 4, 7, 1]</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
         <v>1000</v>
       </c>
       <c r="F36" t="n">
-        <v>1.427183866500854</v>
+        <v>1.40225076675415</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>[3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>[1, 4, 0, 0, 1, 5, 0, 4]</t>
+          <t>[6, 2, 6, 7, 5, 7, 1, 3]</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1496,28 +1496,28 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>[2, 5, 3, 0, 7, 4, 6, 1]</t>
+          <t>[4, 6, 1, 5, 2, 0, 7, 3]</t>
         </is>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>384</v>
+        <v>40</v>
       </c>
       <c r="F37" t="n">
-        <v>0.5465388298034668</v>
+        <v>0.05784511566162109</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>[3, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
+          <t>[2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>[7, 0, 7, 5, 4, 3, 1, 1]</t>
+          <t>[5, 4, 2, 3, 1, 7, 6, 7]</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1525,28 +1525,28 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>[2, 4, 1, 7, 0, 6, 3, 5]</t>
+          <t>[1, 7, 5, 3, 0, 7, 4, 6]</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>744</v>
+        <v>1000</v>
       </c>
       <c r="F38" t="n">
-        <v>1.052186489105225</v>
+        <v>1.402250528335571</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>[2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
+          <t>[2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>[7, 0, 3, 6, 1, 3, 0, 2]</t>
+          <t>[3, 7, 2, 6, 5, 4, 0, 6]</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1554,28 +1554,28 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>[7, 4, 2, 5, 1, 6, 0, 3]</t>
+          <t>[5, 3, 6, 0, 7, 1, 4, 2]</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>1000</v>
+        <v>4</v>
       </c>
       <c r="F39" t="n">
-        <v>1.411226749420166</v>
+        <v>0.006982326507568359</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>[2, 3, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[2, 2, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>[4, 6, 7, 7, 5, 7, 0, 2]</t>
+          <t>[5, 0, 3, 7, 5, 0, 1, 7]</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1583,28 +1583,28 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>[2, 4, 1, 7, 0, 6, 3, 5]</t>
+          <t>[1, 4, 6, 0, 2, 7, 5, 3]</t>
         </is>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>4</v>
+        <v>126</v>
       </c>
       <c r="F40" t="n">
-        <v>0.006981134414672852</v>
+        <v>0.1795191764831543</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>[2, 2, 1, 0]</t>
+          <t>[2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>[0, 1, 1, 5, 2, 5, 3, 2]</t>
+          <t>[3, 2, 1, 1, 0, 5, 0, 7]</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1612,28 +1612,28 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>[1, 5, 4, 0, 7, 3, 6, 2]</t>
+          <t>[0, 6, 3, 5, 7, 1, 4, 2]</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>1000</v>
+        <v>588</v>
       </c>
       <c r="F41" t="n">
-        <v>1.415215253829956</v>
+        <v>0.8307788372039795</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>[3, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>[5, 1, 3, 2, 1, 6, 0, 5]</t>
+          <t>[0, 4, 0, 3, 5, 4, 1, 3]</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1641,28 +1641,28 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>[0, 6, 3, 1, 4, 7, 5, 2]</t>
+          <t>[4, 0, 3, 5, 7, 1, 6, 2]</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>1000</v>
+        <v>344</v>
       </c>
       <c r="F42" t="n">
-        <v>1.414218425750732</v>
+        <v>0.4847037792205811</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>[2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>[6, 6, 4, 7, 7, 4, 7, 7]</t>
+          <t>[0, 7, 5, 7, 2, 5, 5, 4]</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>[0, 3, 5, 7, 1, 6, 0, 2]</t>
+          <t>[6, 0, 7, 1, 3, 5, 2, 4]</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -1680,18 +1680,18 @@
         <v>1000</v>
       </c>
       <c r="F43" t="n">
-        <v>1.408234834671021</v>
+        <v>1.413221120834351</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>[3, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>[0, 2, 2, 2, 0, 7, 3, 5]</t>
+          <t>[3, 0, 5, 5, 3, 2, 5, 4]</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>[2, 0, 5, 3, 0, 6, 4, 1]</t>
+          <t>[2, 7, 5, 3, 5, 0, 4, 6]</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -1709,18 +1709,18 @@
         <v>1000</v>
       </c>
       <c r="F44" t="n">
-        <v>1.40723705291748</v>
+        <v>1.403247833251953</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>[2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>[3, 2, 2, 6, 0, 6, 2, 2]</t>
+          <t>[5, 6, 1, 6, 1, 2, 4, 2]</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1728,28 +1728,28 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>[3, 7, 0, 4, 6, 1, 5, 2]</t>
+          <t>[2, 6, 1, 7, 4, 0, 3, 5]</t>
         </is>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F45" t="n">
-        <v>0.01296567916870117</v>
+        <v>0.009973526000976562</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>[3, 2, 1, 1, 1, 1, 1, 0]</t>
+          <t>[2, 1, 1, 1, 1, 0]</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>[7, 1, 5, 5, 7, 7, 1, 0]</t>
+          <t>[7, 5, 2, 1, 3, 5, 6, 1]</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1757,28 +1757,28 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>[5, 0, 4, 1, 7, 2, 6, 3]</t>
+          <t>[2, 4, 2, 7, 5, 3, 1, 6]</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>61</v>
+        <v>1000</v>
       </c>
       <c r="F46" t="n">
-        <v>0.08776521682739258</v>
+        <v>1.411226511001587</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>[3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
+          <t>[3, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>[3, 0, 3, 6, 7, 3, 0, 1]</t>
+          <t>[2, 3, 7, 1, 5, 7, 6, 5]</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1786,28 +1786,28 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>[5, 2, 4, 6, 0, 3, 1, 7]</t>
+          <t>[1, 5, 7, 3, 0, 2, 4, 6]</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="F47" t="n">
-        <v>0.02094388008117676</v>
+        <v>1.404245138168335</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
+          <t>[3, 3, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>[7, 4, 5, 2, 2, 1, 4, 4]</t>
+          <t>[2, 6, 5, 7, 7, 1, 0, 7]</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1815,7 +1815,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>[3, 5, 0, 2, 6, 2, 7, 1]</t>
+          <t>[4, 6, 0, 3, 1, 5, 7, 2]</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -1825,18 +1825,18 @@
         <v>1000</v>
       </c>
       <c r="F48" t="n">
-        <v>1.418208122253418</v>
+        <v>1.406240224838257</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>[2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[3, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>[7, 6, 7, 1, 1, 4, 5, 6]</t>
+          <t>[4, 7, 0, 4, 4, 2, 4, 0]</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1844,28 +1844,28 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>[7, 2, 4, 6, 1, 3, 5, 3]</t>
+          <t>[3, 7, 2, 1, 6, 0, 5, 0]</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E49" t="n">
         <v>1000</v>
       </c>
       <c r="F49" t="n">
-        <v>1.400255918502808</v>
+        <v>1.403247833251953</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>[2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>[4, 0, 0, 5, 3, 2, 1, 3]</t>
+          <t>[4, 1, 5, 4, 2, 5, 2, 4]</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1873,28 +1873,28 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>[3, 1, 6, 2, 5, 7, 0, 4]</t>
+          <t>[2, 5, 1, 4, 7, 0, 6, 3]</t>
         </is>
       </c>
       <c r="D50" t="n">
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>111</v>
+        <v>406</v>
       </c>
       <c r="F50" t="n">
-        <v>0.157578706741333</v>
+        <v>0.5754613876342773</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>[3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>[4, 1, 3, 4, 5, 3, 4, 5]</t>
+          <t>[6, 6, 4, 2, 2, 1, 5, 3]</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1902,7 +1902,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>[4, 4, 1, 5, 2, 6, 3, 7]</t>
+          <t>[2, 3, 1, 6, 4, 0, 7, 5]</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -1912,18 +1912,18 @@
         <v>1000</v>
       </c>
       <c r="F51" t="n">
-        <v>1.397264242172241</v>
+        <v>1.413221120834351</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[3, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>[4, 0, 7, 4, 6, 4, 6, 7]</t>
+          <t>[7, 5, 4, 0, 7, 0, 2, 7]</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1931,7 +1931,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>[3, 5, 7, 1, 4, 2, 0, 6]</t>
+          <t>[0, 5, 3, 6, 3, 7, 4, 1]</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -1941,18 +1941,18 @@
         <v>1000</v>
       </c>
       <c r="F52" t="n">
-        <v>1.406239986419678</v>
+        <v>1.410229206085205</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>[2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>[0, 6, 6, 1, 2, 1, 4, 0]</t>
+          <t>[1, 3, 4, 7, 7, 7, 2, 3]</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1960,28 +1960,28 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>[5, 3, 0, 4, 7, 1, 6, 2]</t>
+          <t>[3, 1, 4, 7, 5, 0, 2, 6]</t>
         </is>
       </c>
       <c r="D53" t="n">
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>135</v>
+        <v>179</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1924853324890137</v>
+        <v>0.2533230781555176</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
+          <t>[3, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>[0, 2, 6, 6, 3, 0, 1, 5]</t>
+          <t>[6, 3, 4, 2, 2, 5, 1, 3]</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1989,28 +1989,28 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>[3, 6, 0, 7, 4, 1, 5, 2]</t>
+          <t>[5, 7, 1, 6, 4, 2, 0, 3]</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="F54" t="n">
-        <v>0.2982027530670166</v>
+        <v>1.408234357833862</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>[2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>[5, 0, 7, 4, 2, 4, 5, 5]</t>
+          <t>[0, 6, 3, 0, 6, 2, 2, 3]</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -2018,28 +2018,28 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>[3, 6, 0, 7, 4, 1, 5, 2]</t>
+          <t>[3, 1, 4, 7, 5, 0, 2, 6]</t>
         </is>
       </c>
       <c r="D55" t="n">
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F55" t="n">
-        <v>0.02792525291442871</v>
+        <v>0.006980419158935547</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
+          <t>[3, 1, 1, 0]</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>[4, 6, 5, 4, 7, 0, 5, 7]</t>
+          <t>[5, 1, 7, 7, 6, 5, 3, 7]</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -2047,7 +2047,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>[6, 6, 3, 1, 4, 7, 5, 2]</t>
+          <t>[0, 5, 3, 6, 7, 2, 4, 1]</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -2057,18 +2057,18 @@
         <v>1000</v>
       </c>
       <c r="F56" t="n">
-        <v>1.408234596252441</v>
+        <v>1.423194646835327</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>[3, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>[3, 1, 2, 5, 7, 1, 6, 1]</t>
+          <t>[0, 0, 6, 0, 7, 2, 3, 6]</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -2076,28 +2076,28 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>[4, 6, 1, 3, 7, 0, 2, 5]</t>
+          <t>[6, 6, 3, 1, 4, 7, 5, 2]</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>764</v>
+        <v>1000</v>
       </c>
       <c r="F57" t="n">
-        <v>1.091082334518433</v>
+        <v>1.444138765335083</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>[3, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
+          <t>[4, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>[7, 5, 6, 0, 5, 5, 4, 0]</t>
+          <t>[7, 4, 4, 2, 2, 4, 4, 4]</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -2105,28 +2105,28 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>[3, 7, 0, 4, 6, 1, 5, 2]</t>
+          <t>[1, 3, 6, 2, 7, 5, 3, 0]</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>973</v>
+        <v>1000</v>
       </c>
       <c r="F58" t="n">
-        <v>1.370336055755615</v>
+        <v>1.414218902587891</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>[2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
+          <t>[2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>[7, 0, 1, 1, 3, 0, 4, 7]</t>
+          <t>[4, 2, 6, 3, 2, 5, 0, 1]</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -2134,28 +2134,28 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>[4, 6, 1, 5, 2, 0, 7, 3]</t>
+          <t>[0, 4, 1, 3, 6, 2, 7, 5]</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="F59" t="n">
-        <v>0.008975982666015625</v>
+        <v>1.427183866500854</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>[3, 3, 2, 2, 0]</t>
+          <t>[2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>[5, 0, 6, 4, 6, 2, 4, 4]</t>
+          <t>[7, 0, 0, 5, 1, 3, 2, 2]</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>[6, 4, 0, 0, 3, 5, 7, 2]</t>
+          <t>[4, 0, 5, 3, 1, 3, 7, 2]</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -2173,18 +2173,18 @@
         <v>1000</v>
       </c>
       <c r="F60" t="n">
-        <v>1.409232139587402</v>
+        <v>1.406239986419678</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>[2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>[1, 2, 3, 2, 0, 6, 5, 2]</t>
+          <t>[5, 2, 7, 4, 6, 0, 0, 4]</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>[2, 7, 3, 1, 7, 5, 0, 6]</t>
+          <t>[5, 7, 0, 3, 6, 4, 1, 4]</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -2202,18 +2202,18 @@
         <v>1000</v>
       </c>
       <c r="F61" t="n">
-        <v>1.416213274002075</v>
+        <v>1.453182458877563</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>[2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>[4, 2, 8, 0, 8, 4, 0, 7, 0, 2]</t>
+          <t>[4, 5, 9, 2, 5, 2, 5, 0, 5, 6]</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>[3, 0, 9, 7, 2, 2, 6, 8, 1, 4]</t>
+          <t>[0, 6, 4, 2, 8, 6, 9, 3, 5, 7]</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -2231,18 +2231,18 @@
         <v>1000</v>
       </c>
       <c r="F62" t="n">
-        <v>3.002970457077026</v>
+        <v>2.987013101577759</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>[3, 3, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[3, 3, 3, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>[8, 3, 1, 0, 7, 8, 4, 4, 2, 2]</t>
+          <t>[1, 6, 4, 5, 1, 7, 3, 3, 7, 5]</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -2250,28 +2250,28 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>[4, 1, 7, 5, 2, 6, 9, 0, 5, 8]</t>
+          <t>[9, 5, 3, 0, 6, 8, 1, 7, 4, 2]</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>1000</v>
+        <v>647</v>
       </c>
       <c r="F63" t="n">
-        <v>2.998981475830078</v>
+        <v>1.939813375473022</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>[2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>[6, 5, 9, 6, 1, 8, 5, 4, 2, 4]</t>
+          <t>[1, 2, 6, 1, 8, 4, 0, 1, 9, 6]</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -2279,7 +2279,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>[5, 2, 8, 6, 3, 7, 0, 4, 1, 9]</t>
+          <t>[3, 7, 9, 1, 6, 2, 0, 8, 4, 5]</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -2289,18 +2289,18 @@
         <v>1000</v>
       </c>
       <c r="F64" t="n">
-        <v>3.05184006690979</v>
+        <v>3.015442132949829</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>[3, 3, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>[1, 9, 8, 5, 2, 8, 9, 3, 0, 8]</t>
+          <t>[7, 1, 6, 3, 0, 1, 0, 8, 5, 7]</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -2308,7 +2308,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>[8, 3, 0, 2, 5, 9, 6, 4, 7, 1]</t>
+          <t>[6, 1, 5, 2, 9, 3, 8, 4, 9, 0]</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -2318,18 +2318,18 @@
         <v>1000</v>
       </c>
       <c r="F65" t="n">
-        <v>2.993994474411011</v>
+        <v>2.995264053344727</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>[3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[3, 3, 3, 3, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>[6, 7, 2, 9, 0, 3, 8, 5, 8, 8]</t>
+          <t>[7, 5, 9, 6, 6, 5, 1, 9, 4, 3]</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -2337,7 +2337,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>[4, 0, 3, 9, 7, 5, 8, 2, 0, 6]</t>
+          <t>[6, 2, 9, 7, 4, 8, 1, 5, 7, 0]</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -2347,18 +2347,18 @@
         <v>1000</v>
       </c>
       <c r="F66" t="n">
-        <v>2.992997407913208</v>
+        <v>3.007040739059448</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>[2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>[1, 7, 4, 7, 2, 2, 8, 4, 3, 5]</t>
+          <t>[5, 8, 9, 6, 6, 2, 8, 7, 2, 1]</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>[1, 7, 0, 3, 6, 9, 5, 2, 4, 6]</t>
+          <t>[1, 5, 7, 0, 0, 3, 6, 9, 2, 8]</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -2376,18 +2376,18 @@
         <v>1000</v>
       </c>
       <c r="F67" t="n">
-        <v>2.978036880493164</v>
+        <v>2.969212293624878</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>[3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[4, 3, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>[7, 8, 6, 6, 3, 9, 2, 0, 9, 1]</t>
+          <t>[4, 2, 3, 8, 8, 1, 1, 9, 1, 1]</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -2395,7 +2395,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>[8, 3, 5, 2, 8, 1, 4, 7, 9, 0]</t>
+          <t>[3, 1, 3, 9, 6, 4, 2, 0, 5, 7]</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -2405,18 +2405,18 @@
         <v>1000</v>
       </c>
       <c r="F68" t="n">
-        <v>2.995989561080933</v>
+        <v>2.993573665618896</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>[4, 4, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>[0, 2, 8, 3, 1, 1, 5, 3, 8, 4]</t>
+          <t>[5, 1, 9, 5, 7, 9, 0, 2, 6, 4]</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -2424,7 +2424,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>[2, 4, 7, 0, 8, 3, 5, 0, 9, 1]</t>
+          <t>[0, 4, 7, 1, 6, 2, 0, 8, 3, 5]</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -2434,18 +2434,18 @@
         <v>1000</v>
       </c>
       <c r="F69" t="n">
-        <v>3.020922422409058</v>
+        <v>2.984021425247192</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>[4, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[4, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>[0, 7, 5, 9, 6, 5, 1, 7, 1, 9]</t>
+          <t>[3, 4, 0, 9, 1, 7, 2, 0, 4, 4]</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -2453,28 +2453,28 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>[6, 4, 1, 7, 0, 3, 8, 2, 5, 9]</t>
+          <t>[6, 4, 9, 1, 3, 7, 2, 8, 5, 0]</t>
         </is>
       </c>
       <c r="D70" t="n">
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>546</v>
+        <v>22</v>
       </c>
       <c r="F70" t="n">
-        <v>1.647594690322876</v>
+        <v>0.06981348991394043</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>[3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 0]</t>
+          <t>[2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>[9, 5, 7, 7, 5, 4, 8, 7, 9, 6]</t>
+          <t>[3, 5, 1, 7, 8, 1, 4, 4, 6, 8]</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -2482,7 +2482,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>[3, 7, 4, 8, 0, 2, 7, 5, 1, 9]</t>
+          <t>[7, 2, 0, 8, 4, 0, 9, 6, 1, 5]</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -2492,18 +2492,18 @@
         <v>1000</v>
       </c>
       <c r="F71" t="n">
-        <v>2.996986865997314</v>
+        <v>3.016010999679565</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>[3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[4, 4, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>[1, 0, 9, 7, 7, 7, 6, 6, 3, 5]</t>
+          <t>[1, 2, 9, 4, 2, 5, 6, 9, 8, 3]</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -2511,28 +2511,28 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>[4, 8, 1, 9, 6, 5, 2, 0, 3, 7]</t>
+          <t>[5, 7, 4, 1, 8, 2, 9, 6, 3, 0]</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>1000</v>
+        <v>498</v>
       </c>
       <c r="F72" t="n">
-        <v>3.057823896408081</v>
+        <v>1.501506567001343</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>[3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>[0, 4, 9, 6, 9, 7, 6, 6, 3, 5]</t>
+          <t>[2, 0, 5, 9, 0, 3, 7, 9, 6, 1]</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -2540,7 +2540,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>[6, 2, 7, 1, 4, 9, 8, 0, 5, 3]</t>
+          <t>[7, 4, 2, 8, 6, 3, 0, 6, 1, 5]</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -2550,18 +2550,18 @@
         <v>1000</v>
       </c>
       <c r="F73" t="n">
-        <v>3.009952068328857</v>
+        <v>2.989554405212402</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>[4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[3, 3, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>[1, 3, 3, 7, 4, 8, 3, 2, 9, 2]</t>
+          <t>[7, 0, 3, 7, 5, 9, 9, 0, 2, 6]</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>[1, 6, 8, 5, 2, 4, 9, 7, 3, 3]</t>
+          <t>[4, 7, 1, 8, 6, 3, 0, 2, 9, 5]</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -2579,18 +2579,18 @@
         <v>1000</v>
       </c>
       <c r="F74" t="n">
-        <v>3.00085711479187</v>
+        <v>3.000752210617065</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>[3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>[8, 0, 0, 4, 5, 2, 2, 7, 0, 8]</t>
+          <t>[8, 6, 4, 7, 3, 4, 8, 3, 1, 7]</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -2598,28 +2598,28 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>[4, 2, 8, 5, 9, 1, 6, 0, 3, 7]</t>
+          <t>[9, 0, 5, 3, 1, 7, 2, 8, 6, 4]</t>
         </is>
       </c>
       <c r="D75" t="n">
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>783</v>
+        <v>28</v>
       </c>
       <c r="F75" t="n">
-        <v>2.349717140197754</v>
+        <v>0.08826923370361328</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>[4, 3, 3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
+          <t>[2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>[0, 9, 3, 4, 4, 0, 6, 9, 8, 4]</t>
+          <t>[3, 4, 0, 3, 5, 8, 9, 9, 0, 8]</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -2627,7 +2627,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>[5, 8, 6, 0, 3, 1, 4, 9, 7, 2]</t>
+          <t>[1, 8, 0, 7, 4, 2, 6, 9, 3, 5]</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -2637,18 +2637,18 @@
         <v>1000</v>
       </c>
       <c r="F76" t="n">
-        <v>3.013941287994385</v>
+        <v>2.979612827301025</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>[2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[3, 3, 3, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>[0, 4, 1, 3, 8, 0, 5, 9, 1, 4]</t>
+          <t>[5, 8, 8, 1, 7, 2, 9, 0, 2, 7]</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -2656,28 +2656,28 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>[1, 5, 2, 9, 7, 4, 8, 0, 3, 6]</t>
+          <t>[5, 1, 9, 6, 8, 2, 0, 3, 7, 4]</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="F77" t="n">
-        <v>3.005962610244751</v>
+        <v>0.05684757232666016</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>[4, 3, 3, 3, 3, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[3, 3, 3, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>[8, 3, 0, 3, 3, 9, 0, 5, 6, 5]</t>
+          <t>[8, 4, 4, 5, 9, 4, 4, 4, 4, 5]</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -2685,7 +2685,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>[6, 3, 7, 2, 4, 8, 1, 5, 9, 6]</t>
+          <t>[0, 2, 5, 8, 1, 9, 4, 6, 7, 3]</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -2695,18 +2695,18 @@
         <v>1000</v>
       </c>
       <c r="F78" t="n">
-        <v>3.017930746078491</v>
+        <v>3.048987865447998</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>[3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>[9, 4, 5, 0, 4, 4, 0, 0, 6, 1]</t>
+          <t>[0, 6, 6, 6, 7, 5, 5, 0, 8, 9]</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -2714,7 +2714,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>[1, 4, 2, 8, 6, 9, 0, 0, 5, 7]</t>
+          <t>[2, 8, 6, 4, 0, 5, 9, 6, 3, 7]</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -2724,18 +2724,18 @@
         <v>1000</v>
       </c>
       <c r="F79" t="n">
-        <v>3.028901100158691</v>
+        <v>2.984021663665771</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>[3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[4, 3, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>[8, 5, 5, 4, 7, 7, 6, 4, 8, 1]</t>
+          <t>[3, 6, 5, 2, 7, 5, 1, 5, 9, 9]</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -2743,28 +2743,28 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>[3, 9, 6, 4, 1, 7, 0, 2, 8, 5]</t>
+          <t>[3, 5, 9, 4, 1, 7, 2, 6, 8, 0]</t>
         </is>
       </c>
       <c r="D80" t="n">
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1476051807403564</v>
+        <v>0.06682109832763672</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>[3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 2, 2, 2, 2, 2, 1, 0]</t>
+          <t>[2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>[9, 7, 4, 3, 5, 4, 2, 7, 3, 8]</t>
+          <t>[8, 9, 7, 5, 0, 1, 8, 1, 0, 2]</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -2772,7 +2772,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>[6, 1, 3, 0, 7, 9, 4, 2, 0, 8]</t>
+          <t>[6, 2, 5, 1, 9, 4, 8, 3, 0, 7]</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -2782,18 +2782,18 @@
         <v>1000</v>
       </c>
       <c r="F81" t="n">
-        <v>2.987013339996338</v>
+        <v>2.977039813995361</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>[4, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[3, 3, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>[3, 4, 0, 8, 2, 9, 2, 6, 0, 4]</t>
+          <t>[5, 3, 5, 3, 6, 8, 0, 5, 4, 9]</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -2801,7 +2801,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>[5, 7, 2, 3, 6, 8, 1, 4, 9, 0]</t>
+          <t>[4, 1, 4, 8, 5, 2, 9, 3, 0, 7]</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -2811,18 +2811,18 @@
         <v>1000</v>
       </c>
       <c r="F82" t="n">
-        <v>2.984021425247192</v>
+        <v>2.985018730163574</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>[3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[4, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>[8, 0, 0, 5, 6, 9, 0, 3, 6, 6]</t>
+          <t>[8, 0, 3, 4, 6, 7, 4, 8, 8, 8]</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>[2, 7, 4, 6, 1, 9, 5, 0, 8, 3]</t>
+          <t>[2, 5, 7, 4, 1, 3, 9, 6, 8, 2]</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -2840,18 +2840,18 @@
         <v>1000</v>
       </c>
       <c r="F83" t="n">
-        <v>2.984021186828613</v>
+        <v>2.975044965744019</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>[4, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[4, 3, 3, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>[4, 8, 3, 9, 3, 5, 0, 8, 4, 0]</t>
+          <t>[9, 4, 3, 0, 7, 3, 5, 5, 7, 9]</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -2859,7 +2859,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>[8, 1, 9, 2, 0, 7, 3, 0, 6, 4]</t>
+          <t>[3, 5, 2, 9, 1, 6, 4, 9, 0, 8]</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -2869,18 +2869,18 @@
         <v>1000</v>
       </c>
       <c r="F84" t="n">
-        <v>2.978037357330322</v>
+        <v>3.002970695495605</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>[3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>[9, 6, 3, 4, 0, 5, 1, 5, 7, 6]</t>
+          <t>[3, 4, 7, 5, 6, 0, 7, 2, 5, 0]</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -2888,7 +2888,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>[7, 3, 1, 3, 8, 6, 4, 2, 0, 5]</t>
+          <t>[3, 1, 8, 2, 5, 9, 7, 0, 4, 6]</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -2898,18 +2898,18 @@
         <v>1000</v>
       </c>
       <c r="F85" t="n">
-        <v>2.974047899246216</v>
+        <v>2.986016035079956</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>[4, 4, 4, 4, 3, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[4, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>[3, 9, 8, 2, 8, 0, 5, 2, 1, 5]</t>
+          <t>[5, 2, 2, 5, 2, 4, 8, 5, 5, 3]</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -2917,7 +2917,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>[1, 8, 6, 2, 7, 5, 0, 9, 6, 4]</t>
+          <t>[4, 7, 0, 6, 9, 2, 5, 8, 8, 3]</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -2927,18 +2927,18 @@
         <v>1000</v>
       </c>
       <c r="F86" t="n">
-        <v>2.989007711410522</v>
+        <v>3.036168813705444</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>[3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>[2, 9, 2, 9, 9, 5, 6, 3, 6, 0]</t>
+          <t>[6, 5, 7, 3, 2, 3, 7, 1, 3, 1]</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -2946,28 +2946,28 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>[3, 0, 7, 5, 1, 9, 6, 8, 2, 4]</t>
+          <t>[4, 7, 1, 8, 2, 8, 6, 0, 9, 5]</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>305</v>
+        <v>1000</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9155521392822266</v>
+        <v>3.000976085662842</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>[3, 3, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
+          <t>[3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>[8, 4, 5, 6, 3, 2, 9, 9, 4, 0]</t>
+          <t>[2, 3, 5, 1, 6, 1, 3, 6, 6, 9]</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>[8, 6, 0, 3, 7, 9, 5, 2, 4, 1]</t>
+          <t>[7, 6, 2, 0, 8, 3, 5, 9, 1, 4]</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -2985,18 +2985,18 @@
         <v>1000</v>
       </c>
       <c r="F88" t="n">
-        <v>3.005962610244751</v>
+        <v>2.984021186828613</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>[3, 3, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>[3, 6, 4, 3, 6, 4, 3, 4, 2, 9]</t>
+          <t>[5, 2, 2, 3, 4, 6, 9, 7, 9, 7]</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -3004,7 +3004,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>[4, 6, 1, 9, 2, 5, 8, 1, 3, 0]</t>
+          <t>[1, 9, 4, 2, 5, 8, 6, 0, 3, 7]</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -3014,18 +3014,18 @@
         <v>1000</v>
       </c>
       <c r="F89" t="n">
-        <v>3.012943983078003</v>
+        <v>2.993994474411011</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>[3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>[9, 9, 5, 1, 2, 8, 2, 0, 1, 7]</t>
+          <t>[6, 4, 8, 5, 0, 0, 4, 9, 8, 0]</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -3033,7 +3033,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>[5, 2, 4, 1, 7, 9, 3, 0, 4, 8]</t>
+          <t>[5, 3, 6, 0, 5, 8, 1, 7, 4, 2]</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -3043,18 +3043,18 @@
         <v>1000</v>
       </c>
       <c r="F90" t="n">
-        <v>2.995989084243774</v>
+        <v>2.989007949829102</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>[3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[4, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>[1, 4, 9, 1, 7, 4, 1, 7, 9, 5]</t>
+          <t>[1, 5, 1, 1, 0, 1, 7, 9, 8, 4]</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>[2, 6, 3, 0, 8, 5, 9, 6, 1, 7]</t>
+          <t>[3, 6, 2, 5, 8, 1, 7, 4, 7, 0]</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -3072,18 +3072,18 @@
         <v>1000</v>
       </c>
       <c r="F91" t="n">
-        <v>3.005962610244751</v>
+        <v>3.000976085662842</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>[2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[5, 3, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>[6, 11, 1, 1, 10, 11, 10, 8, 8, 4, 2, 0]</t>
+          <t>[8, 11, 6, 8, 4, 1, 8, 10, 7, 0, 2, 5]</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -3091,28 +3091,28 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>[5, 3, 10, 7, 2, 11, 1, 6, 0, 9, 4, 8]</t>
+          <t>[1, 3, 10, 7, 9, 11, 2, 0, 6, 9, 5, 8]</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1366345882415771</v>
+        <v>5.314789056777954</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>[5, 5, 5, 5, 4, 4, 4, 4, 4, 3, 3, 3, 3, 3, 2, 2, 1, 1, 1, 1, 1, 1, 1, 0]</t>
+          <t>[5, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>[0, 2, 5, 10, 10, 8, 1, 0, 1, 11, 10, 6]</t>
+          <t>[3, 11, 9, 0, 6, 10, 10, 10, 8, 7, 2, 11]</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -3120,28 +3120,28 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>[8, 6, 3, 7, 11, 4, 0, 9, 5, 2, 10, 1]</t>
+          <t>[10, 8, 1, 9, 7, 3, 0, 11, 5, 11, 6, 4]</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>445</v>
+        <v>1000</v>
       </c>
       <c r="F93" t="n">
-        <v>2.38861346244812</v>
+        <v>5.321770429611206</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>[5, 4, 4, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
+          <t>[4, 3, 3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>[6, 2, 7, 11, 5, 10, 7, 11, 11, 0, 11, 9]</t>
+          <t>[8, 7, 7, 5, 5, 8, 11, 9, 11, 0, 11, 10]</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -3149,7 +3149,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>[11, 2, 5, 3, 0, 10, 8, 11, 1, 4, 7, 9]</t>
+          <t>[0, 3, 7, 10, 1, 6, 2, 11, 11, 8, 4, 9]</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -3159,18 +3159,18 @@
         <v>1000</v>
       </c>
       <c r="F94" t="n">
-        <v>5.348698377609253</v>
+        <v>5.385103940963745</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>[5, 4, 3, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[4, 4, 3, 3, 4, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>[0, 5, 11, 3, 4, 3, 11, 4, 5, 7, 8, 10]</t>
+          <t>[8, 5, 10, 9, 1, 3, 10, 7, 8, 3, 0, 10]</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -3178,7 +3178,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>[6, 10, 2, 5, 9, 0, 4, 8, 1, 3, 7, 7]</t>
+          <t>[1, 4, 10, 7, 0, 3, 8, 2, 5, 2, 9, 11]</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -3188,18 +3188,18 @@
         <v>1000</v>
       </c>
       <c r="F95" t="n">
-        <v>5.315786838531494</v>
+        <v>5.351840257644653</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>[3, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[4, 4, 4, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>[9, 0, 5, 0, 7, 4, 8, 3, 4, 3, 3, 6]</t>
+          <t>[8, 0, 4, 11, 9, 6, 10, 1, 9, 10, 5, 2]</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>[9, 6, 10, 5, 1, 8, 0, 3, 7, 2, 11, 9]</t>
+          <t>[8, 4, 7, 0, 2, 9, 6, 3, 10, 4, 11, 5]</t>
         </is>
       </c>
       <c r="D96" t="n">
@@ -3217,18 +3217,18 @@
         <v>1000</v>
       </c>
       <c r="F96" t="n">
-        <v>5.349695682525635</v>
+        <v>5.326095104217529</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>[4, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[5, 5, 4, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>[8, 7, 9, 8, 6, 1, 2, 10, 3, 10, 2, 11]</t>
+          <t>[7, 4, 5, 4, 7, 8, 0, 9, 0, 3, 8, 10]</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -3236,7 +3236,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>[2, 2, 9, 6, 3, 10, 4, 11, 0, 5, 7, 1]</t>
+          <t>[5, 8, 11, 3, 10, 7, 1, 10, 0, 2, 6, 9]</t>
         </is>
       </c>
       <c r="D97" t="n">
@@ -3246,18 +3246,18 @@
         <v>1000</v>
       </c>
       <c r="F97" t="n">
-        <v>5.348698377609253</v>
+        <v>5.357331991195679</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>[5, 3, 3, 3, 3, 3, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[3, 3, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>[6, 8, 11, 9, 8, 0, 10, 3, 9, 6, 2, 10]</t>
+          <t>[9, 3, 10, 6, 5, 6, 5, 8, 11, 3, 9, 6]</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -3265,7 +3265,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>[10, 7, 4, 1, 9, 2, 6, 11, 1, 8, 5, 3]</t>
+          <t>[6, 8, 2, 0, 3, 9, 7, 10, 2, 11, 5, 1]</t>
         </is>
       </c>
       <c r="D98" t="n">
@@ -3275,18 +3275,18 @@
         <v>1000</v>
       </c>
       <c r="F98" t="n">
-        <v>5.372634649276733</v>
+        <v>5.346351385116577</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>[4, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[4, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>[2, 8, 3, 1, 0, 10, 11, 7, 7, 4, 6, 11]</t>
+          <t>[8, 8, 7, 3, 5, 0, 0, 4, 10, 6, 11, 0]</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -3294,28 +3294,28 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>[5, 7, 9, 1, 6, 2, 0, 10, 8, 4, 11, 3]</t>
+          <t>[1, 9, 4, 8, 0, 2, 6, 11, 1, 7, 5, 3]</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1615679264068604</v>
+        <v>5.3233802318573</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>[4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
+          <t>[5, 4, 3, 3, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>[11, 3, 0, 6, 9, 2, 11, 1, 9, 5, 10, 10]</t>
+          <t>[8, 8, 1, 6, 1, 2, 7, 3, 10, 9, 11, 6]</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -3323,7 +3323,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>[1, 9, 7, 2, 6, 8, 0, 11, 3, 5, 10, 4]</t>
+          <t>[6, 2, 9, 5, 8, 10, 4, 1, 11, 0, 3, 7]</t>
         </is>
       </c>
       <c r="D100" t="n">
@@ -3333,18 +3333,18 @@
         <v>1000</v>
       </c>
       <c r="F100" t="n">
-        <v>5.371637344360352</v>
+        <v>5.331743955612183</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>[4, 4, 4, 3, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[5, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>[4, 8, 0, 5, 0, 4, 3, 8, 10, 10, 10, 3]</t>
+          <t>[5, 7, 10, 9, 9, 8, 6, 3, 11, 4, 10, 9]</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>[11, 8, 4, 1, 1, 10, 7, 0, 2, 5, 9, 6]</t>
+          <t>[5, 1, 10, 4, 0, 8, 3, 9, 7, 2, 8, 6]</t>
         </is>
       </c>
       <c r="D101" t="n">
@@ -3362,18 +3362,18 @@
         <v>1000</v>
       </c>
       <c r="F101" t="n">
-        <v>5.34770131111145</v>
+        <v>5.308804988861084</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>[4, 3, 3, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[4, 4, 4, 4, 3, 3, 3, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>[7, 5, 9, 0, 4, 6, 0, 3, 11, 9, 8, 2]</t>
+          <t>[5, 3, 7, 7, 4, 9, 3, 7, 3, 4, 0, 5]</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -3381,28 +3381,28 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>[1, 6, 2, 7, 11, 3, 9, 6, 10, 0, 4, 8]</t>
+          <t>[8, 2, 5, 7, 10, 0, 3, 6, 4, 9, 1, 11]</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E102" t="n">
         <v>1000</v>
       </c>
       <c r="F102" t="n">
-        <v>5.397567749023438</v>
+        <v>5.299829244613647</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>[4, 4, 4, 3, 3, 2, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>[10, 6, 4, 10, 9, 3, 2, 4, 5, 9, 9, 9]</t>
+          <t>[8, 5, 2, 11, 5, 6, 10, 4, 6, 7, 1, 7]</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -3410,28 +3410,28 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>[11, 1, 5, 9, 0, 1, 10, 1, 2, 6, 8, 3]</t>
+          <t>[4, 6, 9, 11, 1, 5, 0, 10, 7, 3, 8, 2]</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E103" t="n">
         <v>1000</v>
       </c>
       <c r="F103" t="n">
-        <v>5.372634649276733</v>
+        <v>5.338725090026855</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>[4, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[4, 3, 3, 3, 3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>[3, 5, 5, 5, 11, 8, 8, 9, 2, 11, 10, 10]</t>
+          <t>[10, 5, 11, 1, 5, 3, 3, 10, 9, 0, 5, 11]</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -3439,28 +3439,28 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>[7, 10, 0, 3, 5, 11, 9, 1, 4, 8, 0, 2]</t>
+          <t>[0, 10, 5, 7, 9, 11, 3, 1, 6, 8, 2, 4]</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="F104" t="n">
-        <v>5.347701072692871</v>
+        <v>0.5934135913848877</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>[4, 4, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[4, 4, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>[2, 1, 10, 7, 1, 7, 8, 6, 8, 7, 11, 6]</t>
+          <t>[2, 11, 1, 6, 7, 5, 8, 8, 3, 6, 5, 1]</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -3468,28 +3468,28 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>[3, 8, 11, 2, 0, 9, 4, 0, 10, 6, 1, 5]</t>
+          <t>[5, 3, 8, 4, 11, 1, 10, 2, 6, 9, 7, 0]</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>1000</v>
+        <v>409</v>
       </c>
       <c r="F105" t="n">
-        <v>5.357674598693848</v>
+        <v>2.211618185043335</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>[4, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[5, 4, 4, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>[7, 8, 7, 2, 2, 8, 11, 8, 9, 9, 4, 10]</t>
+          <t>[9, 4, 2, 11, 0, 10, 4, 10, 5, 5, 3, 2]</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -3497,28 +3497,28 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>[9, 11, 3, 8, 4, 2, 0, 10, 6, 1, 5, 7]</t>
+          <t>[4, 8, 11, 3, 1, 7, 5, 0, 2, 10, 6, 9]</t>
         </is>
       </c>
       <c r="D106" t="n">
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>872</v>
+        <v>24</v>
       </c>
       <c r="F106" t="n">
-        <v>4.659541130065918</v>
+        <v>0.1347260475158691</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>[4, 4, 4, 3, 3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
+          <t>[5, 4, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>[7, 0, 7, 11, 10, 10, 5, 5, 8, 10, 9, 4]</t>
+          <t>[9, 2, 4, 5, 9, 7, 11, 9, 7, 7, 3, 7]</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -3526,7 +3526,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>[5, 2, 10, 1, 6, 4, 9, 0, 3, 5, 7, 11]</t>
+          <t>[4, 7, 7, 0, 11, 8, 1, 5, 9, 2, 6, 10]</t>
         </is>
       </c>
       <c r="D107" t="n">
@@ -3536,18 +3536,18 @@
         <v>1000</v>
       </c>
       <c r="F107" t="n">
-        <v>5.353685140609741</v>
+        <v>5.395318984985352</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>[4, 4, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[4, 3, 3, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>[9, 6, 2, 4, 6, 8, 10, 4, 10, 0, 6, 5]</t>
+          <t>[3, 4, 1, 4, 9, 7, 5, 8, 8, 9, 8, 8]</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -3555,7 +3555,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>[0, 6, 8, 5, 1, 1, 9, 11, 3, 7, 4, 2]</t>
+          <t>[5, 11, 4, 7, 10, 3, 9, 0, 8, 10, 1, 6]</t>
         </is>
       </c>
       <c r="D108" t="n">
@@ -3565,18 +3565,18 @@
         <v>1000</v>
       </c>
       <c r="F108" t="n">
-        <v>5.311797142028809</v>
+        <v>5.373284578323364</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>[5, 4, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[4, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>[2, 9, 1, 2, 0, 3, 8, 1, 6, 5, 0, 5]</t>
+          <t>[4, 0, 1, 3, 0, 6, 7, 8, 9, 0, 2, 3]</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -3584,7 +3584,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>[7, 5, 3, 1, 4, 11, 8, 10, 1, 6, 0, 2]</t>
+          <t>[4, 9, 11, 3, 10, 7, 11, 2, 0, 6, 1, 5]</t>
         </is>
       </c>
       <c r="D109" t="n">
@@ -3594,18 +3594,18 @@
         <v>1000</v>
       </c>
       <c r="F109" t="n">
-        <v>5.336730718612671</v>
+        <v>5.39504599571228</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>[5, 3, 3, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[4, 4, 3, 3, 3, 3, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>[2, 10, 3, 5, 3, 1, 9, 11, 5, 3, 0, 3]</t>
+          <t>[5, 7, 3, 3, 3, 7, 0, 4, 5, 8, 0, 3]</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -3613,7 +3613,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>[10, 7, 3, 11, 3, 1, 6, 9, 5, 0, 8, 4]</t>
+          <t>[3, 9, 0, 9, 4, 1, 11, 6, 10, 2, 5, 8]</t>
         </is>
       </c>
       <c r="D110" t="n">
@@ -3623,18 +3623,18 @@
         <v>1000</v>
       </c>
       <c r="F110" t="n">
-        <v>5.357674121856689</v>
+        <v>5.357674598693848</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>[5, 4, 3, 3, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>[8, 3, 1, 5, 1, 8, 7, 9, 1, 9, 8, 4]</t>
+          <t>[9, 2, 3, 10, 11, 0, 3, 4, 3, 4, 0, 4]</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -3642,28 +3642,28 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>[7, 3, 8, 11, 1, 6, 0, 10, 4, 9, 5, 2]</t>
+          <t>[4, 2, 7, 10, 1, 11, 8, 5, 3, 9, 0, 10]</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="F111" t="n">
-        <v>3.223381519317627</v>
+        <v>5.349695920944214</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>[3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
+          <t>[4, 4, 4, 4, 4, 4, 4, 4, 4, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>[10, 8, 3, 10, 1, 8, 11, 7, 7, 11, 4, 11]</t>
+          <t>[4, 2, 6, 3, 7, 1, 1, 3, 11, 5, 3, 10]</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -3671,7 +3671,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>[10, 3, 5, 0, 9, 4, 2, 11, 8, 3, 1, 6]</t>
+          <t>[10, 8, 5, 3, 10, 0, 2, 11, 9, 7, 1, 4]</t>
         </is>
       </c>
       <c r="D112" t="n">
@@ -3681,18 +3681,18 @@
         <v>1000</v>
       </c>
       <c r="F112" t="n">
-        <v>5.363658666610718</v>
+        <v>5.331743717193604</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>[4, 4, 4, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[4, 4, 3, 3, 3, 3, 3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>[4, 5, 1, 0, 1, 10, 2, 1, 8, 6, 3, 11]</t>
+          <t>[7, 3, 1, 5, 9, 0, 4, 3, 3, 10, 11, 1]</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -3700,28 +3700,28 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>[2, 10, 1, 6, 4, 9, 11, 0, 4, 7, 5, 8]</t>
+          <t>[6, 10, 7, 1, 4, 9, 5, 8, 2, 11, 3, 6]</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E113" t="n">
         <v>1000</v>
       </c>
       <c r="F113" t="n">
-        <v>5.371637105941772</v>
+        <v>5.363658666610718</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>[4, 4, 4, 4, 3, 3, 3, 3, 3, 3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[4, 4, 3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>[3, 4, 5, 4, 6, 7, 6, 4, 8, 0, 8, 5]</t>
+          <t>[3, 5, 0, 6, 9, 2, 9, 7, 1, 4, 0, 10]</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -3729,28 +3729,28 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>[6, 8, 1, 7, 4, 0, 9, 5, 10, 2, 11, 3]</t>
+          <t>[2, 7, 3, 8, 11, 4, 0, 10, 5, 9, 6, 1]</t>
         </is>
       </c>
       <c r="D114" t="n">
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>754</v>
+        <v>14</v>
       </c>
       <c r="F114" t="n">
-        <v>4.089066743850708</v>
+        <v>0.08078408241271973</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>[4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
+          <t>[4, 3, 3, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 0]</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>[2, 7, 6, 6, 4, 3, 1, 5, 7, 10, 7, 5]</t>
+          <t>[2, 8, 0, 11, 6, 3, 10, 10, 3, 7, 8, 8]</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -3758,7 +3758,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>[5, 2, 8, 11, 0, 8, 3, 1, 10, 7, 9, 4]</t>
+          <t>[9, 7, 4, 8, 0, 2, 10, 6, 11, 9, 5, 1]</t>
         </is>
       </c>
       <c r="D115" t="n">
@@ -3768,18 +3768,18 @@
         <v>1000</v>
       </c>
       <c r="F115" t="n">
-        <v>5.378618478775024</v>
+        <v>5.313791751861572</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>[4, 2, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[5, 5, 4, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>[9, 6, 10, 6, 1, 9, 8, 7, 5, 8, 8, 9]</t>
+          <t>[11, 8, 5, 6, 5, 7, 9, 3, 9, 6, 5, 11]</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -3787,7 +3787,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>[5, 0, 8, 11, 4, 8, 10, 2, 9, 6, 1, 7]</t>
+          <t>[8, 10, 5, 2, 9, 1, 4, 7, 10, 3, 11, 6]</t>
         </is>
       </c>
       <c r="D116" t="n">
@@ -3797,18 +3797,18 @@
         <v>1000</v>
       </c>
       <c r="F116" t="n">
-        <v>5.362661123275757</v>
+        <v>5.362661361694336</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>[3, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>[6, 0, 11, 11, 3, 11, 4, 10, 6, 1, 10, 1]</t>
+          <t>[1, 11, 11, 9, 10, 6, 0, 3, 5, 2, 9, 4]</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -3816,7 +3816,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>[5, 8, 2, 0, 7, 3, 0, 11, 9, 1, 6, 10]</t>
+          <t>[2, 8, 10, 0, 4, 9, 11, 6, 11, 1, 5, 7]</t>
         </is>
       </c>
       <c r="D117" t="n">
@@ -3826,18 +3826,18 @@
         <v>1000</v>
       </c>
       <c r="F117" t="n">
-        <v>5.379616022109985</v>
+        <v>5.318778276443481</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>[4, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[4, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>[2, 2, 0, 6, 10, 1, 4, 10, 4, 2, 3, 9]</t>
+          <t>[7, 8, 11, 1, 5, 9, 10, 1, 8, 2, 7, 3]</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -3845,7 +3845,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>[0, 8, 10, 5, 1, 6, 11, 11, 2, 7, 9, 3]</t>
+          <t>[10, 6, 1, 5, 0, 0, 3, 8, 11, 7, 4, 2]</t>
         </is>
       </c>
       <c r="D118" t="n">
@@ -3855,18 +3855,18 @@
         <v>1000</v>
       </c>
       <c r="F118" t="n">
-        <v>5.377620935440063</v>
+        <v>5.328752040863037</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>[4, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[4, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>[5, 9, 8, 8, 2, 7, 3, 6, 9, 7, 7, 2]</t>
+          <t>[8, 9, 6, 1, 6, 0, 2, 4, 5, 2, 8, 2]</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -3874,28 +3874,28 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>[2, 6, 3, 10, 4, 11, 9, 5, 1, 8, 0, 7]</t>
+          <t>[6, 4, 1, 7, 8, 10, 2, 9, 5, 0, 11, 3]</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>621</v>
+        <v>1000</v>
       </c>
       <c r="F119" t="n">
-        <v>3.31713080406189</v>
+        <v>5.345706462860107</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>[4, 4, 3, 3, 3, 3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
+          <t>[4, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>[2, 8, 1, 5, 6, 1, 7, 5, 3, 6, 10, 9]</t>
+          <t>[3, 5, 5, 10, 6, 11, 11, 0, 2, 3, 9, 8]</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -3903,7 +3903,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>[8, 2, 5, 10, 0, 7, 11, 4, 1, 9, 6, 3]</t>
+          <t>[6, 11, 0, 10, 4, 2, 7, 9, 1, 8, 5, 3]</t>
         </is>
       </c>
       <c r="D120" t="n">
@@ -3913,18 +3913,18 @@
         <v>1000</v>
       </c>
       <c r="F120" t="n">
-        <v>5.374628782272339</v>
+        <v>5.362661123275757</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>[4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>[11, 4, 9, 2, 6, 0, 9, 7, 4, 5, 2, 1]</t>
+          <t>[7, 4, 11, 10, 4, 6, 4, 5, 2, 9, 10, 7]</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -3932,28 +3932,28 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>[11, 6, 10, 7, 2, 0, 3, 1, 8, 5, 9, 4]</t>
+          <t>[11, 1, 4, 6, 8, 10, 2, 0, 5, 7, 9, 3]</t>
         </is>
       </c>
       <c r="D121" t="n">
         <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="F121" t="n">
-        <v>0.3620321750640869</v>
+        <v>0.1934826374053955</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>[5, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
+          <t>[4, 4, 4, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>[10, 0, 12, 9, 12, 5, 11, 0, 9, 4, 6, 8, 3, 9, 5]</t>
+          <t>[0, 11, 2, 6, 8, 6, 14, 7, 14, 2, 14, 5, 14, 5, 13]</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -3961,28 +3961,28 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>[5, 8, 6, 12, 2, 7, 14, 0, 11, 4, 1, 3, 9, 13, 10]</t>
+          <t>[5, 3, 8, 13, 2, 9, 6, 14, 11, 4, 7, 0, 10, 12, 1]</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E122" t="n">
-        <v>226</v>
+        <v>1000</v>
       </c>
       <c r="F122" t="n">
-        <v>2.214080095291138</v>
+        <v>9.737962484359741</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>[4, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
+          <t>[6, 7, 5, 5, 5, 4, 4, 4, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>[10, 4, 10, 13, 8, 3, 6, 2, 8, 3, 12, 0, 2, 5, 8]</t>
+          <t>[6, 6, 3, 13, 8, 11, 7, 3, 10, 8, 5, 6, 6, 0, 11]</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -3990,7 +3990,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>[5, 10, 8, 11, 14, 1, 6, 0, 9, 13, 13, 2, 4, 7, 12]</t>
+          <t>[4, 9, 5, 12, 1, 3, 13, 2, 10, 8, 6, 2, 0, 7, 14]</t>
         </is>
       </c>
       <c r="D123" t="n">
@@ -4000,18 +4000,18 @@
         <v>1000</v>
       </c>
       <c r="F123" t="n">
-        <v>9.642218351364136</v>
+        <v>9.689092874526978</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>[7, 7, 6, 6, 6, 6, 6, 5, 5, 5, 5, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 3, 3, 3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[6, 6, 5, 5, 5, 4, 4, 4, 4, 3, 3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>[8, 2, 4, 0, 14, 6, 3, 3, 14, 14, 12, 0, 0, 8, 5]</t>
+          <t>[5, 0, 9, 12, 9, 0, 10, 1, 3, 1, 9, 5, 5, 8, 10]</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -4019,28 +4019,28 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>[1, 5, 10, 13, 6, 0, 11, 0, 14, 12, 9, 3, 8, 2, 4]</t>
+          <t>[9, 5, 12, 2, 7, 10, 13, 1, 8, 0, 3, 7, 14, 11, 6]</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E124" t="n">
         <v>1000</v>
       </c>
       <c r="F124" t="n">
-        <v>9.730981349945068</v>
+        <v>9.823733329772949</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>[7, 6, 4, 4, 4, 4, 4, 4, 4, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[5, 5, 4, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>[0, 6, 9, 13, 0, 7, 8, 1, 14, 11, 5, 3, 3, 11, 2]</t>
+          <t>[10, 5, 11, 6, 1, 10, 9, 0, 11, 4, 2, 1, 8, 7, 4]</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -4048,28 +4048,28 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>[9, 2, 6, 10, 7, 1, 4, 12, 14, 11, 0, 5, 3, 8, 13]</t>
+          <t>[2, 12, 3, 8, 14, 13, 0, 7, 4, 1, 5, 10, 10, 6, 11]</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E125" t="n">
         <v>1000</v>
       </c>
       <c r="F125" t="n">
-        <v>9.697071552276611</v>
+        <v>9.681191921234131</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>[6, 4, 4, 4, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[7, 6, 4, 4, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>[6, 8, 0, 14, 10, 3, 7, 5, 9, 0, 6, 10, 12, 12, 3]</t>
+          <t>[9, 14, 1, 8, 11, 9, 8, 14, 13, 10, 1, 7, 9, 0, 11]</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -4077,7 +4077,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>[1, 9, 11, 5, 0, 10, 3, 14, 6, 8, 2, 14, 7, 13, 4]</t>
+          <t>[0, 10, 4, 7, 5, 13, 1, 12, 14, 6, 2, 14, 8, 11, 3]</t>
         </is>
       </c>
       <c r="D126" t="n">
@@ -4087,18 +4087,18 @@
         <v>1000</v>
       </c>
       <c r="F126" t="n">
-        <v>9.945407629013062</v>
+        <v>9.719013214111328</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>[5, 5, 5, 5, 4, 4, 4, 4, 4, 4, 4, 3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[6, 6, 5, 5, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>[7, 1, 8, 1, 10, 13, 9, 5, 9, 12, 5, 10, 0, 10, 11]</t>
+          <t>[14, 9, 7, 2, 12, 5, 4, 1, 3, 9, 7, 10, 14, 13, 0]</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -4106,28 +4106,28 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>[14, 9, 1, 5, 7, 2, 10, 13, 13, 4, 8, 11, 0, 6, 3]</t>
+          <t>[3, 1, 9, 14, 6, 4, 2, 5, 13, 13, 8, 12, 7, 0, 11]</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E127" t="n">
         <v>1000</v>
       </c>
       <c r="F127" t="n">
-        <v>9.699066400527954</v>
+        <v>9.788826465606689</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>[5, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[7, 5, 4, 4, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>[2, 13, 5, 6, 2, 6, 11, 5, 11, 12, 8, 9, 4, 0, 7]</t>
+          <t>[6, 3, 5, 10, 4, 7, 5, 1, 1, 11, 1, 13, 4, 7, 9]</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>[7, 3, 10, 13, 9, 4, 0, 11, 14, 1, 13, 6, 12, 2, 5]</t>
+          <t>[3, 9, 2, 10, 1, 4, 11, 5, 12, 2, 6, 13, 7, 14, 0]</t>
         </is>
       </c>
       <c r="D128" t="n">
@@ -4145,18 +4145,18 @@
         <v>1000</v>
       </c>
       <c r="F128" t="n">
-        <v>9.767882347106934</v>
+        <v>9.703055858612061</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>[5, 4, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[6, 5, 4, 3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>[6, 10, 12, 2, 1, 3, 14, 6, 7, 2, 6, 11, 6, 13, 0]</t>
+          <t>[2, 9, 1, 5, 4, 9, 7, 14, 2, 7, 6, 0, 14, 5, 13]</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -4164,7 +4164,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>[3, 7, 10, 14, 9, 4, 1, 14, 8, 5, 0, 12, 6, 2, 11]</t>
+          <t>[9, 2, 8, 1, 11, 10, 14, 0, 4, 13, 7, 3, 6, 12, 5]</t>
         </is>
       </c>
       <c r="D129" t="n">
@@ -4174,18 +4174,18 @@
         <v>1000</v>
       </c>
       <c r="F129" t="n">
-        <v>9.756911754608154</v>
+        <v>9.729983568191528</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>[7, 6, 5, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[6, 5, 5, 4, 4, 4, 3, 3, 3, 3, 3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>[10, 14, 3, 2, 3, 0, 8, 2, 7, 13, 8, 14, 7, 1, 3]</t>
+          <t>[10, 7, 13, 9, 8, 9, 5, 6, 0, 10, 6, 7, 6, 14, 11]</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -4193,28 +4193,28 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>[8, 2, 11, 14, 6, 1, 13, 0, 12, 7, 4, 10, 3, 5, 9]</t>
+          <t>[0, 11, 13, 1, 5, 9, 14, 3, 10, 12, 7, 2, 4, 6, 8]</t>
         </is>
       </c>
       <c r="D130" t="n">
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>223</v>
+        <v>306</v>
       </c>
       <c r="F130" t="n">
-        <v>2.181167840957642</v>
+        <v>2.967066526412964</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>[6, 5, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
+          <t>[5, 4, 4, 4, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>[6, 5, 4, 4, 13, 5, 10, 5, 10, 14, 12, 13, 1, 12, 4]</t>
+          <t>[1, 11, 8, 2, 9, 7, 14, 13, 1, 7, 9, 4, 3, 5, 14]</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -4222,28 +4222,28 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>[7, 12, 10, 0, 2, 4, 14, 11, 9, 2, 6, 13, 3, 1, 8]</t>
+          <t>[9, 13, 3, 7, 0, 11, 6, 4, 0, 14, 8, 2, 5, 12, 1]</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E131" t="n">
         <v>1000</v>
       </c>
       <c r="F131" t="n">
-        <v>9.756911754608154</v>
+        <v>9.734970569610596</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>[7, 5, 5, 5, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[8, 4, 5, 5, 5, 5, 5, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>[0, 14, 3, 13, 9, 11, 1, 9, 7, 6, 5, 1, 2, 9, 13]</t>
+          <t>[11, 5, 6, 3, 1, 4, 6, 3, 9, 10, 12, 11, 7, 12, 10]</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -4251,7 +4251,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>[7, 4, 6, 14, 10, 1, 5, 8, 13, 3, 0, 9, 12, 5, 11]</t>
+          <t>[3, 13, 8, 2, 9, 1, 6, 0, 12, 0, 11, 5, 14, 10, 4]</t>
         </is>
       </c>
       <c r="D132" t="n">
@@ -4261,18 +4261,18 @@
         <v>1000</v>
       </c>
       <c r="F132" t="n">
-        <v>9.740954399108887</v>
+        <v>9.756064653396606</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>[5, 4, 4, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[7, 6, 5, 4, 4, 4, 4, 4, 4, 4, 4, 4, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>[10, 11, 9, 14, 5, 9, 4, 8, 14, 12, 4, 13, 5, 8, 3]</t>
+          <t>[10, 4, 12, 12, 2, 0, 13, 14, 1, 9, 0, 14, 6, 3, 2]</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -4280,7 +4280,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>[12, 14, 8, 2, 9, 6, 1, 14, 10, 0, 13, 3, 5, 7, 11]</t>
+          <t>[0, 12, 7, 5, 10, 1, 9, 14, 2, 13, 8, 1, 11, 4, 6]</t>
         </is>
       </c>
       <c r="D133" t="n">
@@ -4290,18 +4290,18 @@
         <v>1000</v>
       </c>
       <c r="F133" t="n">
-        <v>9.741951704025269</v>
+        <v>9.723999738693237</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>[5, 4, 4, 4, 4, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[7, 6, 4, 4, 4, 4, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>[3, 6, 13, 11, 2, 4, 1, 12, 11, 11, 10, 0, 12, 4, 0]</t>
+          <t>[4, 9, 1, 14, 10, 6, 14, 12, 6, 11, 8, 10, 0, 6, 2]</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -4309,28 +4309,28 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>[8, 11, 2, 7, 3, 14, 0, 10, 1, 4, 6, 13, 9, 5, 12]</t>
+          <t>[4, 10, 5, 2, 14, 11, 6, 12, 1, 13, 7, 3, 8, 0, 9]</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E134" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="F134" t="n">
-        <v>0.4378294944763184</v>
+        <v>9.683109045028687</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>[6, 5, 5, 5, 4, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
+          <t>[6, 6, 6, 5, 4, 4, 3, 3, 3, 3, 3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>[13, 8, 14, 11, 1, 9, 3, 3, 11, 7, 3, 2, 1, 11, 7]</t>
+          <t>[10, 14, 0, 12, 1, 2, 0, 9, 1, 14, 11, 10, 12, 11, 10]</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -4338,28 +4338,28 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>[10, 3, 6, 2, 7, 13, 0, 5, 1, 14, 11, 8, 12, 4, 1]</t>
+          <t>[8, 12, 9, 2, 13, 11, 4, 3, 14, 6, 10, 1, 7, 5, 0]</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E135" t="n">
         <v>1000</v>
       </c>
       <c r="F135" t="n">
-        <v>9.723999738693237</v>
+        <v>9.719013214111328</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>[6, 6, 5, 4, 4, 4, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[5, 5, 4, 4, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>[9, 11, 13, 5, 11, 13, 3, 6, 13, 1, 7, 8, 9, 11, 5]</t>
+          <t>[10, 1, 0, 2, 1, 4, 1, 11, 6, 12, 5, 2, 1, 13, 3]</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -4367,28 +4367,28 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>[9, 3, 14, 10, 4, 1, 11, 5, 12, 6, 13, 0, 2, 8, 7]</t>
+          <t>[5, 1, 13, 0, 12, 7, 13, 11, 0, 2, 4, 14, 10, 8, 3]</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E136" t="n">
         <v>1000</v>
       </c>
       <c r="F136" t="n">
-        <v>9.721007585525513</v>
+        <v>9.733973264694214</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>[7, 7, 5, 4, 4, 4, 4, 4, 4, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[4, 5, 4, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>[8, 1, 6, 4, 6, 8, 14, 4, 4, 2, 10, 5, 8, 11, 6]</t>
+          <t>[2, 9, 12, 9, 14, 0, 10, 8, 0, 13, 7, 9, 8, 10, 11]</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -4396,28 +4396,28 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>[14, 6, 0, 2, 8, 11, 14, 1, 10, 12, 5, 2, 13, 9, 3]</t>
+          <t>[0, 6, 4, 13, 7, 9, 12, 14, 2, 10, 5, 1, 8, 11, 3]</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E137" t="n">
-        <v>1000</v>
+        <v>81</v>
       </c>
       <c r="F137" t="n">
-        <v>9.74394679069519</v>
+        <v>0.7938778400421143</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>[6, 6, 4, 3, 3, 3, 3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[6, 5, 5, 3, 3, 3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>[14, 13, 9, 3, 2, 9, 3, 10, 0, 1, 8, 0, 12, 11, 10]</t>
+          <t>[4, 2, 8, 3, 1, 2, 5, 9, 5, 0, 10, 11, 1, 2, 9]</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -4425,7 +4425,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>[10, 8, 0, 4, 12, 7, 2, 11, 7, 14, 3, 6, 9, 13, 5]</t>
+          <t>[0, 6, 0, 12, 8, 13, 5, 3, 14, 10, 7, 2, 4, 1, 9]</t>
         </is>
       </c>
       <c r="D138" t="n">
@@ -4435,18 +4435,18 @@
         <v>1000</v>
       </c>
       <c r="F138" t="n">
-        <v>9.755914449691772</v>
+        <v>9.70106053352356</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>[7, 6, 6, 5, 3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[7, 6, 5, 5, 5, 5, 5, 5, 5, 5, 5, 4, 4, 4, 4, 4, 4, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>[13, 11, 8, 14, 2, 5, 1, 13, 11, 7, 8, 6, 12, 0, 2]</t>
+          <t>[3, 5, 9, 13, 9, 4, 6, 11, 2, 13, 7, 11, 0, 14, 2]</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -4454,7 +4454,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>[5, 7, 9, 3, 12, 8, 4, 0, 10, 13, 7, 1, 11, 14, 6]</t>
+          <t>[7, 5, 1, 6, 13, 10, 14, 4, 0, 3, 8, 2, 12, 9, 2]</t>
         </is>
       </c>
       <c r="D139" t="n">
@@ -4464,18 +4464,18 @@
         <v>1000</v>
       </c>
       <c r="F139" t="n">
-        <v>9.786831617355347</v>
+        <v>9.637231826782227</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>[5, 5, 5, 5, 4, 4, 3, 3, 3, 3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[7, 7, 5, 5, 5, 5, 5, 5, 4, 4, 4, 4, 3, 3, 3, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>[14, 2, 7, 3, 8, 5, 1, 3, 4, 7, 7, 8, 2, 10, 6]</t>
+          <t>[11, 2, 13, 2, 2, 7, 6, 1, 5, 0, 14, 13, 6, 3, 0]</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -4483,7 +4483,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>[2, 9, 5, 1, 8, 4, 13, 1, 14, 6, 11, 7, 12, 3, 0]</t>
+          <t>[5, 3, 11, 13, 8, 2, 12, 14, 9, 1, 10, 4, 7, 9, 0]</t>
         </is>
       </c>
       <c r="D140" t="n">
@@ -4493,18 +4493,18 @@
         <v>1000</v>
       </c>
       <c r="F140" t="n">
-        <v>9.804783821105957</v>
+        <v>9.718015432357788</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>[5, 5, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[6, 5, 5, 5, 5, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>[6, 11, 12, 1, 4, 2, 12, 14, 11, 3, 11, 6, 12, 6, 3]</t>
+          <t>[9, 4, 5, 0, 3, 7, 2, 8, 5, 13, 9, 13, 7, 12, 14]</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -4512,7 +4512,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>[14, 8, 6, 2, 12, 10, 1, 4, 11, 3, 0, 9, 13, 0, 7]</t>
+          <t>[2, 9, 12, 8, 1, 4, 1, 11, 0, 10, 6, 14, 3, 13, 7]</t>
         </is>
       </c>
       <c r="D141" t="n">
@@ -4522,18 +4522,18 @@
         <v>1000</v>
       </c>
       <c r="F141" t="n">
-        <v>9.7489333152771</v>
+        <v>9.779850482940674</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>[7, 6, 6, 5, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 3, 3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>[3, 14, 4, 5, 5, 12, 13, 13, 5, 13, 10, 11, 12, 12, 12]</t>
+          <t>[10, 13, 4, 10, 10, 2, 13, 6, 4, 13, 6, 13, 0, 14, 0]</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -4541,7 +4541,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>[5, 3, 0, 13, 11, 14, 6, 2, 14, 8, 1, 12, 9, 7, 10]</t>
+          <t>[8, 0, 11, 3, 14, 7, 10, 13, 1, 12, 4, 6, 10, 2, 5]</t>
         </is>
       </c>
       <c r="D142" t="n">
@@ -4551,18 +4551,18 @@
         <v>1000</v>
       </c>
       <c r="F142" t="n">
-        <v>9.729983329772949</v>
+        <v>9.741022348403931</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>[6, 5, 5, 4, 4, 4, 4, 4, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[7, 4, 4, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>[2, 3, 10, 8, 1, 4, 8, 14, 11, 4, 1, 7, 1, 12, 10]</t>
+          <t>[3, 0, 4, 11, 5, 13, 11, 0, 9, 1, 13, 11, 8, 14, 6]</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -4570,7 +4570,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>[8, 12, 4, 9, 5, 0, 13, 11, 2, 14, 1, 10, 5, 3, 6]</t>
+          <t>[5, 11, 13, 3, 6, 4, 10, 12, 0, 2, 8, 14, 1, 7, 9]</t>
         </is>
       </c>
       <c r="D143" t="n">
@@ -4580,18 +4580,18 @@
         <v>1000</v>
       </c>
       <c r="F143" t="n">
-        <v>9.792816162109375</v>
+        <v>9.661167860031128</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>[5, 5, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[7, 7, 5, 4, 4, 4, 3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>[9, 10, 6, 5, 7, 14, 1, 6, 4, 13, 0, 1, 3, 6, 8]</t>
+          <t>[10, 13, 7, 11, 0, 13, 2, 2, 4, 4, 1, 7, 11, 3, 12]</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -4599,7 +4599,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>[8, 4, 12, 7, 13, 11, 0, 6, 10, 2, 5, 1, 9, 14, 5]</t>
+          <t>[11, 4, 7, 11, 2, 5, 1, 14, 10, 13, 9, 12, 3, 0, 6]</t>
         </is>
       </c>
       <c r="D144" t="n">
@@ -4609,18 +4609,18 @@
         <v>1000</v>
       </c>
       <c r="F144" t="n">
-        <v>9.751924753189087</v>
+        <v>9.654186487197876</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>[6, 5, 5, 5, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 3, 3, 3, 3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[6, 4, 4, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>[13, 2, 14, 6, 12, 14, 7, 0, 9, 13, 5, 9, 14, 8, 13]</t>
+          <t>[4, 2, 7, 7, 1, 3, 8, 9, 8, 6, 6, 6, 2, 10, 11]</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -4628,7 +4628,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>[13, 4, 0, 0, 12, 10, 2, 7, 3, 11, 9, 1, 5, 14, 8]</t>
+          <t>[7, 12, 10, 0, 4, 6, 10, 3, 13, 11, 8, 14, 5, 2, 9]</t>
         </is>
       </c>
       <c r="D145" t="n">
@@ -4638,18 +4638,18 @@
         <v>1000</v>
       </c>
       <c r="F145" t="n">
-        <v>9.756911993026733</v>
+        <v>9.743946075439453</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>[7, 6, 5, 4, 4, 4, 4, 4, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[7, 4, 4, 4, 4, 4, 3, 3, 3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>[6, 11, 13, 10, 14, 7, 3, 11, 14, 6, 10, 14, 13, 14, 10]</t>
+          <t>[10, 1, 5, 14, 1, 10, 13, 9, 10, 5, 4, 11, 8, 3, 1]</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -4657,28 +4657,28 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>[11, 8, 4, 13, 3, 9, 2, 5, 7, 12, 0, 6, 1, 10, 14]</t>
+          <t>[2, 5, 10, 8, 0, 3, 13, 6, 1, 12, 7, 11, 4, 14, 9]</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>1000</v>
+        <v>880</v>
       </c>
       <c r="F146" t="n">
-        <v>9.736965179443359</v>
+        <v>8.553130626678467</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>[6, 5, 5, 4, 4, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[6, 4, 3, 4, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>[12, 7, 0, 4, 2, 5, 12, 0, 1, 6, 14, 2, 10, 2, 7]</t>
+          <t>[12, 11, 13, 0, 13, 0, 2, 2, 11, 7, 10, 12, 6, 14, 11]</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -4686,28 +4686,28 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>[4, 6, 1, 12, 10, 3, 7, 14, 11, 0, 2, 5, 8, 13, 9]</t>
+          <t>[12, 9, 4, 6, 1, 14, 2, 11, 8, 14, 5, 0, 10, 7, 13]</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E147" t="n">
-        <v>116</v>
+        <v>1000</v>
       </c>
       <c r="F147" t="n">
-        <v>1.135962247848511</v>
+        <v>9.723999977111816</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>[6, 6, 4, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
+          <t>[6, 5, 4, 4, 4, 4, 4, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>[8, 4, 9, 9, 3, 3, 7, 3, 6, 3, 8, 3, 0, 4, 1]</t>
+          <t>[6, 12, 9, 14, 3, 3, 12, 7, 2, 3, 5, 14, 0, 3, 7]</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -4715,28 +4715,28 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>[5, 8, 2, 4, 13, 7, 10, 1, 14, 12, 0, 9, 3, 6, 11]</t>
+          <t>[10, 5, 14, 6, 9, 2, 12, 1, 4, 8, 11, 0, 3, 13, 0]</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E148" t="n">
-        <v>52</v>
+        <v>1000</v>
       </c>
       <c r="F148" t="n">
-        <v>0.5176160335540771</v>
+        <v>9.714026212692261</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>[7, 6, 4, 4, 3, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
+          <t>[5, 4, 4, 4, 3, 3, 3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>[11, 3, 2, 12, 3, 12, 9, 2, 10, 12, 10, 4, 9, 3, 4]</t>
+          <t>[0, 10, 3, 2, 13, 10, 4, 8, 9, 1, 10, 11, 10, 7, 7]</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>[9, 0, 10, 14, 11, 2, 7, 3, 6, 12, 1, 13, 7, 5, 8]</t>
+          <t>[12, 9, 6, 2, 7, 10, 0, 13, 1, 5, 11, 8, 14, 4, 9]</t>
         </is>
       </c>
       <c r="D149" t="n">
@@ -4754,18 +4754,18 @@
         <v>1000</v>
       </c>
       <c r="F149" t="n">
-        <v>9.743946552276611</v>
+        <v>9.758906364440918</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>[6, 6, 5, 4, 4, 4, 4, 4, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>[11, 12, 10, 7, 9, 0, 13, 0, 12, 8, 5, 0, 12, 7, 14]</t>
+          <t>[4, 14, 5, 14, 11, 11, 11, 13, 8, 12, 9, 12, 3, 3, 7]</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -4773,28 +4773,28 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>[6, 13, 5, 10, 13, 3, 10, 2, 4, 1, 12, 0, 11, 14, 7]</t>
+          <t>[12, 10, 4, 14, 1, 5, 9, 11, 13, 0, 6, 3, 7, 14, 8]</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E150" t="n">
         <v>1000</v>
       </c>
       <c r="F150" t="n">
-        <v>9.735967874526978</v>
+        <v>9.698069095611572</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>[7, 5, 5, 5, 5, 5, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[6, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 3, 3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>[12, 0, 8, 4, 14, 0, 14, 12, 10, 8, 6, 11, 5, 10, 7]</t>
+          <t>[9, 12, 12, 2, 14, 8, 3, 11, 0, 11, 7, 5, 12, 1, 2]</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -4802,21 +4802,21 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>[6, 0, 14, 1, 11, 9, 7, 10, 13, 3, 12, 8, 8, 5, 2]</t>
+          <t>[5, 8, 10, 3, 6, 14, 12, 1, 7, 4, 13, 0, 2, 9, 11]</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E151" t="n">
-        <v>1000</v>
+        <v>421</v>
       </c>
       <c r="F151" t="n">
-        <v>9.723002433776855</v>
+        <v>4.090063810348511</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>[5, 5, 5, 5, 4, 4, 4, 4, 4, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[6, 5, 4, 4, 4, 4, 4, 4, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 0]</t>
         </is>
       </c>
     </row>
